--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Endpoint</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Endpoint</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Endpoint</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -595,7 +595,7 @@
     <t>endpoint-usecase</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/endpoint-usecase}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpoint-usecase}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>ig-supported</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/igsSupported}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/igsSupported}
 </t>
   </si>
   <si>
@@ -625,7 +625,7 @@
     <t>endpoint-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/endpointType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpointType}
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>secure-exchange-artifacts</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/secureExchangeArtifacts}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/secureExchangeArtifacts}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>trust-framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/trustFramework}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/trustFramework}
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>dynamic-registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/dynamicRegistration}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/dynamicRegistration}
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <t>associated-servers</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/associatedServers}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/associatedServers}
 </t>
   </si>
   <si>
@@ -678,7 +678,7 @@
     <t>secured-endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/secureEndpoint}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/secureEndpoint}
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
     <t>For additional connectivity details for the protocol, extensions will be used at this point, as in the XDS example.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/EndpointConnectionTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/EndpointConnectionTypeVS</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -777,7 +777,7 @@
     <t>Endpoint.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
     <t>The payloadFormat describes the serialization format of the data, where the payloadType indicates the specific document/schema that is being transferred; e.g. DischargeSummary or CarePlan.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/EndpointPayloadTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/EndpointPayloadTypeVS</t>
   </si>
   <si>
     <t>Endpoint.payloadMimeType</t>
@@ -1350,7 +1350,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.52734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
